--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Fgf2-Fgfrl1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Fgf2-Fgfrl1.xlsx
@@ -537,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.005243333333333</v>
+        <v>0.7321483333333333</v>
       </c>
       <c r="H2">
-        <v>3.01573</v>
+        <v>2.196445</v>
       </c>
       <c r="I2">
-        <v>0.07224874268505826</v>
+        <v>0.05113520435363902</v>
       </c>
       <c r="J2">
-        <v>0.07224874268505825</v>
+        <v>0.05113520435363902</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.704056</v>
+        <v>1.193633666666667</v>
       </c>
       <c r="N2">
-        <v>2.112168</v>
+        <v>3.580901</v>
       </c>
       <c r="O2">
-        <v>0.06182348620901491</v>
+        <v>0.0852504197348203</v>
       </c>
       <c r="P2">
-        <v>0.0618234862090149</v>
+        <v>0.08525041973482028</v>
       </c>
       <c r="Q2">
-        <v>0.7077476002933333</v>
+        <v>0.8739168996605555</v>
       </c>
       <c r="R2">
-        <v>6.369728402639999</v>
+        <v>7.865252096944999</v>
       </c>
       <c r="S2">
-        <v>0.004466669147008366</v>
+        <v>0.004359297634373536</v>
       </c>
       <c r="T2">
-        <v>0.004466669147008365</v>
+        <v>0.004359297634373535</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.005243333333333</v>
+        <v>0.7321483333333333</v>
       </c>
       <c r="H3">
-        <v>3.01573</v>
+        <v>2.196445</v>
       </c>
       <c r="I3">
-        <v>0.07224874268505826</v>
+        <v>0.05113520435363902</v>
       </c>
       <c r="J3">
-        <v>0.07224874268505825</v>
+        <v>0.05113520435363902</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>25.93955</v>
       </c>
       <c r="O3">
-        <v>0.759254667097055</v>
+        <v>0.6175422122064692</v>
       </c>
       <c r="P3">
-        <v>0.759254667097055</v>
+        <v>0.6175422122064691</v>
       </c>
       <c r="Q3">
-        <v>8.691853235722222</v>
+        <v>6.330532766638889</v>
       </c>
       <c r="R3">
-        <v>78.22667912149998</v>
+        <v>56.97479489974999</v>
       </c>
       <c r="S3">
-        <v>0.0548551950755247</v>
+        <v>0.03157814721817612</v>
       </c>
       <c r="T3">
-        <v>0.05485519507552469</v>
+        <v>0.03157814721817611</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.005243333333333</v>
+        <v>0.7321483333333333</v>
       </c>
       <c r="H4">
-        <v>3.01573</v>
+        <v>2.196445</v>
       </c>
       <c r="I4">
-        <v>0.07224874268505826</v>
+        <v>0.05113520435363902</v>
       </c>
       <c r="J4">
-        <v>0.07224874268505825</v>
+        <v>0.05113520435363902</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>1.618446666666667</v>
+        <v>4.028899666666667</v>
       </c>
       <c r="N4">
-        <v>4.85534</v>
+        <v>12.086699</v>
       </c>
       <c r="O4">
-        <v>0.1421165577407093</v>
+        <v>0.2877477380576656</v>
       </c>
       <c r="P4">
-        <v>0.1421165577407092</v>
+        <v>0.2877477380576655</v>
       </c>
       <c r="Q4">
-        <v>1.626932722022222</v>
+        <v>2.949752176117222</v>
       </c>
       <c r="R4">
-        <v>14.6423944982</v>
+        <v>26.547769585055</v>
       </c>
       <c r="S4">
-        <v>0.01026774261149473</v>
+        <v>0.01471403938787612</v>
       </c>
       <c r="T4">
-        <v>0.01026774261149473</v>
+        <v>0.01471403938787612</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,46 +723,46 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1.005243333333333</v>
+        <v>0.7321483333333333</v>
       </c>
       <c r="H5">
-        <v>3.01573</v>
+        <v>2.196445</v>
       </c>
       <c r="I5">
-        <v>0.07224874268505826</v>
+        <v>0.05113520435363902</v>
       </c>
       <c r="J5">
-        <v>0.07224874268505825</v>
+        <v>0.05113520435363902</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L5">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>0.4191446666666667</v>
+        <v>0.132449</v>
       </c>
       <c r="N5">
-        <v>1.257434</v>
+        <v>0.397347</v>
       </c>
       <c r="O5">
-        <v>0.03680528895322079</v>
+        <v>0.009459630001044888</v>
       </c>
       <c r="P5">
-        <v>0.03680528895322079</v>
+        <v>0.009459630001044887</v>
       </c>
       <c r="Q5">
-        <v>0.4213423818688889</v>
+        <v>0.09697231460166666</v>
       </c>
       <c r="R5">
-        <v>3.79208143682</v>
+        <v>0.8727508314149999</v>
       </c>
       <c r="S5">
-        <v>0.002659135851030467</v>
+        <v>0.0004837201132132448</v>
       </c>
       <c r="T5">
-        <v>0.002659135851030466</v>
+        <v>0.0004837201132132448</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>30.779518</v>
       </c>
       <c r="I6">
-        <v>0.7373940889775011</v>
+        <v>0.7165747117895102</v>
       </c>
       <c r="J6">
-        <v>0.737394088977501</v>
+        <v>0.7165747117895102</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.704056</v>
+        <v>1.193633666666667</v>
       </c>
       <c r="N6">
-        <v>2.112168</v>
+        <v>3.580901</v>
       </c>
       <c r="O6">
-        <v>0.06182348620901491</v>
+        <v>0.0852504197348203</v>
       </c>
       <c r="P6">
-        <v>0.0618234862090149</v>
+        <v>0.08525041973482028</v>
       </c>
       <c r="Q6">
-        <v>7.223501441669334</v>
+        <v>12.24648964285756</v>
       </c>
       <c r="R6">
-        <v>65.011512975024</v>
+        <v>110.218406785718</v>
       </c>
       <c r="S6">
-        <v>0.04558827329050965</v>
+        <v>0.06108829495141362</v>
       </c>
       <c r="T6">
-        <v>0.04558827329050964</v>
+        <v>0.06108829495141361</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>30.779518</v>
       </c>
       <c r="I7">
-        <v>0.7373940889775011</v>
+        <v>0.7165747117895102</v>
       </c>
       <c r="J7">
-        <v>0.737394088977501</v>
+        <v>0.7165747117895102</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,10 +871,10 @@
         <v>25.93955</v>
       </c>
       <c r="O7">
-        <v>0.759254667097055</v>
+        <v>0.6175422122064692</v>
       </c>
       <c r="P7">
-        <v>0.759254667097055</v>
+        <v>0.6175422122064691</v>
       </c>
       <c r="Q7">
         <v>88.71187179298889</v>
@@ -883,10 +883,10 @@
         <v>798.4068461369</v>
       </c>
       <c r="S7">
-        <v>0.5598699035459488</v>
+        <v>0.4425151327297072</v>
       </c>
       <c r="T7">
-        <v>0.5598699035459487</v>
+        <v>0.4425151327297071</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>30.779518</v>
       </c>
       <c r="I8">
-        <v>0.7373940889775011</v>
+        <v>0.7165747117895102</v>
       </c>
       <c r="J8">
-        <v>0.737394088977501</v>
+        <v>0.7165747117895102</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>1.618446666666667</v>
+        <v>4.028899666666667</v>
       </c>
       <c r="N8">
-        <v>4.85534</v>
+        <v>12.086699</v>
       </c>
       <c r="O8">
-        <v>0.1421165577407093</v>
+        <v>0.2877477380576656</v>
       </c>
       <c r="P8">
-        <v>0.1421165577407092</v>
+        <v>0.2877477380576655</v>
       </c>
       <c r="Q8">
-        <v>16.60500276956889</v>
+        <v>41.33586327012023</v>
       </c>
       <c r="R8">
-        <v>149.44502492612</v>
+        <v>372.022769431082</v>
       </c>
       <c r="S8">
-        <v>0.1047959096238288</v>
+        <v>0.2061927524667552</v>
       </c>
       <c r="T8">
-        <v>0.1047959096238287</v>
+        <v>0.2061927524667551</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,40 +977,40 @@
         <v>30.779518</v>
       </c>
       <c r="I9">
-        <v>0.7373940889775011</v>
+        <v>0.7165747117895102</v>
       </c>
       <c r="J9">
-        <v>0.737394088977501</v>
+        <v>0.7165747117895102</v>
       </c>
       <c r="K9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L9">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M9">
-        <v>0.4191446666666667</v>
+        <v>0.132449</v>
       </c>
       <c r="N9">
-        <v>1.257434</v>
+        <v>0.397347</v>
       </c>
       <c r="O9">
-        <v>0.03680528895322079</v>
+        <v>0.009459630001044888</v>
       </c>
       <c r="P9">
-        <v>0.03680528895322079</v>
+        <v>0.009459630001044887</v>
       </c>
       <c r="Q9">
-        <v>4.300356937423556</v>
+        <v>1.358905459860667</v>
       </c>
       <c r="R9">
-        <v>38.703212436812</v>
+        <v>12.230149138746</v>
       </c>
       <c r="S9">
-        <v>0.02714000251721393</v>
+        <v>0.006778531641634144</v>
       </c>
       <c r="T9">
-        <v>0.02714000251721393</v>
+        <v>0.006778531641634143</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>2.264687</v>
+        <v>2.568000333333333</v>
       </c>
       <c r="H10">
-        <v>6.794061</v>
+        <v>7.704001</v>
       </c>
       <c r="I10">
-        <v>0.162767344880208</v>
+        <v>0.1793560346266988</v>
       </c>
       <c r="J10">
-        <v>0.162767344880208</v>
+        <v>0.1793560346266988</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.704056</v>
+        <v>1.193633666666667</v>
       </c>
       <c r="N10">
-        <v>2.112168</v>
+        <v>3.580901</v>
       </c>
       <c r="O10">
-        <v>0.06182348620901491</v>
+        <v>0.0852504197348203</v>
       </c>
       <c r="P10">
-        <v>0.0618234862090149</v>
+        <v>0.08525041973482028</v>
       </c>
       <c r="Q10">
-        <v>1.594466470472</v>
+        <v>3.065251653877889</v>
       </c>
       <c r="R10">
-        <v>14.350198234248</v>
+        <v>27.587264884901</v>
       </c>
       <c r="S10">
-        <v>0.01006284470147951</v>
+        <v>0.01529017723389903</v>
       </c>
       <c r="T10">
-        <v>0.01006284470147951</v>
+        <v>0.01529017723389903</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>2.264687</v>
+        <v>2.568000333333333</v>
       </c>
       <c r="H11">
-        <v>6.794061</v>
+        <v>7.704001</v>
       </c>
       <c r="I11">
-        <v>0.162767344880208</v>
+        <v>0.1793560346266988</v>
       </c>
       <c r="J11">
-        <v>0.162767344880208</v>
+        <v>0.1793560346266988</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>25.93955</v>
       </c>
       <c r="O11">
-        <v>0.759254667097055</v>
+        <v>0.6175422122064692</v>
       </c>
       <c r="P11">
-        <v>0.759254667097055</v>
+        <v>0.6175422122064691</v>
       </c>
       <c r="Q11">
-        <v>19.58165389028333</v>
+        <v>22.20425768217222</v>
       </c>
       <c r="R11">
-        <v>176.23488501255</v>
+        <v>199.83831913955</v>
       </c>
       <c r="S11">
-        <v>0.1235818662512939</v>
+        <v>0.1107599223959517</v>
       </c>
       <c r="T11">
-        <v>0.1235818662512939</v>
+        <v>0.1107599223959516</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>2.264687</v>
+        <v>2.568000333333333</v>
       </c>
       <c r="H12">
-        <v>6.794061</v>
+        <v>7.704001</v>
       </c>
       <c r="I12">
-        <v>0.162767344880208</v>
+        <v>0.1793560346266988</v>
       </c>
       <c r="J12">
-        <v>0.162767344880208</v>
+        <v>0.1793560346266988</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>1.618446666666667</v>
+        <v>4.028899666666667</v>
       </c>
       <c r="N12">
-        <v>4.85534</v>
+        <v>12.086699</v>
       </c>
       <c r="O12">
-        <v>0.1421165577407093</v>
+        <v>0.2877477380576656</v>
       </c>
       <c r="P12">
-        <v>0.1421165577407092</v>
+        <v>0.2877477380576655</v>
       </c>
       <c r="Q12">
-        <v>3.665275126193333</v>
+        <v>10.34621568696656</v>
       </c>
       <c r="R12">
-        <v>32.98747613574</v>
+        <v>93.11594118269899</v>
       </c>
       <c r="S12">
-        <v>0.02313193476697002</v>
+        <v>0.05160929327082491</v>
       </c>
       <c r="T12">
-        <v>0.02313193476697002</v>
+        <v>0.0516092932708249</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,46 +1219,46 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>2.264687</v>
+        <v>2.568000333333333</v>
       </c>
       <c r="H13">
-        <v>6.794061</v>
+        <v>7.704001</v>
       </c>
       <c r="I13">
-        <v>0.162767344880208</v>
+        <v>0.1793560346266988</v>
       </c>
       <c r="J13">
-        <v>0.162767344880208</v>
+        <v>0.1793560346266988</v>
       </c>
       <c r="K13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L13">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M13">
-        <v>0.4191446666666667</v>
+        <v>0.132449</v>
       </c>
       <c r="N13">
-        <v>1.257434</v>
+        <v>0.397347</v>
       </c>
       <c r="O13">
-        <v>0.03680528895322079</v>
+        <v>0.009459630001044888</v>
       </c>
       <c r="P13">
-        <v>0.03680528895322079</v>
+        <v>0.009459630001044887</v>
       </c>
       <c r="Q13">
-        <v>0.9492314777193334</v>
+        <v>0.3401290761496667</v>
       </c>
       <c r="R13">
-        <v>8.543083299474</v>
+        <v>3.061161685347</v>
       </c>
       <c r="S13">
-        <v>0.005990699160464599</v>
+        <v>0.001696641726023165</v>
       </c>
       <c r="T13">
-        <v>0.005990699160464599</v>
+        <v>0.001696641726023165</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,16 +1281,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>0.383875</v>
+        <v>0.7579039999999999</v>
       </c>
       <c r="H14">
-        <v>1.151625</v>
+        <v>2.273712</v>
       </c>
       <c r="I14">
-        <v>0.02758982345723265</v>
+        <v>0.05293404923015203</v>
       </c>
       <c r="J14">
-        <v>0.02758982345723265</v>
+        <v>0.05293404923015203</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1299,28 +1299,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>0.704056</v>
+        <v>1.193633666666667</v>
       </c>
       <c r="N14">
-        <v>2.112168</v>
+        <v>3.580901</v>
       </c>
       <c r="O14">
-        <v>0.06182348620901491</v>
+        <v>0.0852504197348203</v>
       </c>
       <c r="P14">
-        <v>0.0618234862090149</v>
+        <v>0.08525041973482028</v>
       </c>
       <c r="Q14">
-        <v>0.270269497</v>
+        <v>0.9046597305013333</v>
       </c>
       <c r="R14">
-        <v>2.432425473</v>
+        <v>8.141937574511999</v>
       </c>
       <c r="S14">
-        <v>0.001705699070017379</v>
+        <v>0.004512649915134101</v>
       </c>
       <c r="T14">
-        <v>0.001705699070017379</v>
+        <v>0.004512649915134101</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,16 +1343,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>0.383875</v>
+        <v>0.7579039999999999</v>
       </c>
       <c r="H15">
-        <v>1.151625</v>
+        <v>2.273712</v>
       </c>
       <c r="I15">
-        <v>0.02758982345723265</v>
+        <v>0.05293404923015203</v>
       </c>
       <c r="J15">
-        <v>0.02758982345723265</v>
+        <v>0.05293404923015203</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,22 +1367,22 @@
         <v>25.93955</v>
       </c>
       <c r="O15">
-        <v>0.759254667097055</v>
+        <v>0.6175422122064692</v>
       </c>
       <c r="P15">
-        <v>0.759254667097055</v>
+        <v>0.6175422122064691</v>
       </c>
       <c r="Q15">
-        <v>3.319181585416667</v>
+        <v>6.553229567733332</v>
       </c>
       <c r="R15">
-        <v>29.87263426875001</v>
+        <v>58.97906610959999</v>
       </c>
       <c r="S15">
-        <v>0.0209477022242877</v>
+        <v>0.03268900986263423</v>
       </c>
       <c r="T15">
-        <v>0.0209477022242877</v>
+        <v>0.03268900986263423</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,16 +1405,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>0.383875</v>
+        <v>0.7579039999999999</v>
       </c>
       <c r="H16">
-        <v>1.151625</v>
+        <v>2.273712</v>
       </c>
       <c r="I16">
-        <v>0.02758982345723265</v>
+        <v>0.05293404923015203</v>
       </c>
       <c r="J16">
-        <v>0.02758982345723265</v>
+        <v>0.05293404923015203</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>1.618446666666667</v>
+        <v>4.028899666666667</v>
       </c>
       <c r="N16">
-        <v>4.85534</v>
+        <v>12.086699</v>
       </c>
       <c r="O16">
-        <v>0.1421165577407093</v>
+        <v>0.2877477380576656</v>
       </c>
       <c r="P16">
-        <v>0.1421165577407092</v>
+        <v>0.2877477380576655</v>
       </c>
       <c r="Q16">
-        <v>0.6212812141666667</v>
+        <v>3.053519172965333</v>
       </c>
       <c r="R16">
-        <v>5.591530927500001</v>
+        <v>27.481672556688</v>
       </c>
       <c r="S16">
-        <v>0.00392097073841578</v>
+        <v>0.01523165293220936</v>
       </c>
       <c r="T16">
-        <v>0.003920970738415779</v>
+        <v>0.01523165293220936</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,46 +1467,46 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>0.383875</v>
+        <v>0.7579039999999999</v>
       </c>
       <c r="H17">
-        <v>1.151625</v>
+        <v>2.273712</v>
       </c>
       <c r="I17">
-        <v>0.02758982345723265</v>
+        <v>0.05293404923015203</v>
       </c>
       <c r="J17">
-        <v>0.02758982345723265</v>
+        <v>0.05293404923015203</v>
       </c>
       <c r="K17">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L17">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M17">
-        <v>0.4191446666666667</v>
+        <v>0.132449</v>
       </c>
       <c r="N17">
-        <v>1.257434</v>
+        <v>0.397347</v>
       </c>
       <c r="O17">
-        <v>0.03680528895322079</v>
+        <v>0.009459630001044888</v>
       </c>
       <c r="P17">
-        <v>0.03680528895322079</v>
+        <v>0.009459630001044887</v>
       </c>
       <c r="Q17">
-        <v>0.1608991589166667</v>
+        <v>0.100383626896</v>
       </c>
       <c r="R17">
-        <v>1.44809243025</v>
+        <v>0.9034526420639999</v>
       </c>
       <c r="S17">
-        <v>0.001015451424511797</v>
+        <v>0.0005007365201743332</v>
       </c>
       <c r="T17">
-        <v>0.001015451424511797</v>
+        <v>0.0005007365201743331</v>
       </c>
     </row>
   </sheetData>
